--- a/src/analysis_examples/circadb/results_lomb/cosinor_10384725_rel_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10384725_rel_.xlsx
@@ -589,35 +589,35 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.26228734748043775, 0.3751034091107179]</t>
+          <t>[0.261516019647149, 0.37587473694400664]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.073474642510064e-10</v>
+        <v>1.376638802952357e-10</v>
       </c>
       <c r="N2" t="n">
-        <v>1.073474642510064e-10</v>
+        <v>1.376638802952357e-10</v>
       </c>
       <c r="O2" t="n">
         <v>-0.9560001668581553</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.1321054607530785, -0.779894872963232]</t>
+          <t>[-1.1446844103170015, -0.767315923399309]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>2.22566853835815e-10</v>
+        <v>7.696276949076264e-10</v>
       </c>
       <c r="R2" t="n">
-        <v>2.22566853835815e-10</v>
+        <v>7.696276949076264e-10</v>
       </c>
       <c r="S2" t="n">
         <v>0.4573639465528134</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.4276842909377637, 0.48704360216786313]</t>
+          <t>[0.4276459739809134, 0.48708191912471344]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -630,10 +630,10 @@
         <v>3.443203203203268</v>
       </c>
       <c r="X2" t="n">
-        <v>2.808928928928982</v>
+        <v>2.763623623623677</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.077477477477554</v>
+        <v>4.12278278278286</v>
       </c>
     </row>
   </sheetData>
